--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N2">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O2">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P2">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q2">
-        <v>226.1431975542643</v>
+        <v>252.1092635563976</v>
       </c>
       <c r="R2">
-        <v>226.1431975542643</v>
+        <v>2268.983372007578</v>
       </c>
       <c r="S2">
-        <v>0.009681018362218193</v>
+        <v>0.008215762833219361</v>
       </c>
       <c r="T2">
-        <v>0.009681018362218193</v>
+        <v>0.008215762833219361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N3">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O3">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P3">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q3">
-        <v>219.1505944012159</v>
+        <v>252.8537494571102</v>
       </c>
       <c r="R3">
-        <v>219.1505944012159</v>
+        <v>2275.683745113992</v>
       </c>
       <c r="S3">
-        <v>0.009381670337353891</v>
+        <v>0.008240024216980703</v>
       </c>
       <c r="T3">
-        <v>0.009381670337353891</v>
+        <v>0.008240024216980701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N4">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O4">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P4">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q4">
-        <v>151.5464472106911</v>
+        <v>178.6951489512566</v>
       </c>
       <c r="R4">
-        <v>151.5464472106911</v>
+        <v>1608.256340561309</v>
       </c>
       <c r="S4">
-        <v>0.006487588192094908</v>
+        <v>0.005823336050886164</v>
       </c>
       <c r="T4">
-        <v>0.006487588192094908</v>
+        <v>0.005823336050886163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N5">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O5">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P5">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q5">
-        <v>110.18750669095</v>
+        <v>274.8083941766091</v>
       </c>
       <c r="R5">
-        <v>110.18750669095</v>
+        <v>2473.275547589482</v>
       </c>
       <c r="S5">
-        <v>0.004717043391526999</v>
+        <v>0.008955484456555139</v>
       </c>
       <c r="T5">
-        <v>0.004717043391526999</v>
+        <v>0.008955484456555139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H6">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N6">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O6">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P6">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q6">
-        <v>7.469410415224602</v>
+        <v>9.120952105577221</v>
       </c>
       <c r="R6">
-        <v>7.469410415224602</v>
+        <v>82.088568950195</v>
       </c>
       <c r="S6">
-        <v>0.0003197597812659462</v>
+        <v>0.0002972345333745022</v>
       </c>
       <c r="T6">
-        <v>0.0003197597812659462</v>
+        <v>0.0002972345333745022</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N7">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O7">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P7">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q7">
-        <v>5541.231369536255</v>
+        <v>5549.651791331993</v>
       </c>
       <c r="R7">
-        <v>5541.231369536255</v>
+        <v>49946.86612198794</v>
       </c>
       <c r="S7">
-        <v>0.2372159022157082</v>
+        <v>0.1808526282666126</v>
       </c>
       <c r="T7">
-        <v>0.2372159022157082</v>
+        <v>0.1808526282666127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N8">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O8">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P8">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q8">
-        <v>5369.890235398923</v>
+        <v>5566.040072564615</v>
       </c>
       <c r="R8">
-        <v>5369.890235398923</v>
+        <v>50094.36065308154</v>
       </c>
       <c r="S8">
-        <v>0.2298809185251696</v>
+        <v>0.1813866912754524</v>
       </c>
       <c r="T8">
-        <v>0.2298809185251696</v>
+        <v>0.1813866912754525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N9">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O9">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P9">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q9">
-        <v>3713.372483928676</v>
+        <v>3933.595455756956</v>
       </c>
       <c r="R9">
-        <v>3713.372483928676</v>
+        <v>35402.35910181261</v>
       </c>
       <c r="S9">
-        <v>0.1589666529502533</v>
+        <v>0.1281884167620007</v>
       </c>
       <c r="T9">
-        <v>0.1589666529502533</v>
+        <v>0.1281884167620008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H10">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N10">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O10">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P10">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q10">
-        <v>2699.946207581006</v>
+        <v>6049.325104129385</v>
       </c>
       <c r="R10">
-        <v>2699.946207581006</v>
+        <v>54443.92593716447</v>
       </c>
       <c r="S10">
-        <v>0.1155826445158541</v>
+        <v>0.1971360340174452</v>
       </c>
       <c r="T10">
-        <v>0.1155826445158541</v>
+        <v>0.1971360340174452</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H11">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N11">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O11">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P11">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q11">
-        <v>183.0244365181566</v>
+        <v>200.778454061235</v>
       </c>
       <c r="R11">
-        <v>183.0244365181566</v>
+        <v>1807.006086551115</v>
       </c>
       <c r="S11">
-        <v>0.007835136983245953</v>
+        <v>0.006542989088612075</v>
       </c>
       <c r="T11">
-        <v>0.007835136983245953</v>
+        <v>0.006542989088612077</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N12">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O12">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P12">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q12">
-        <v>981.4627303329654</v>
+        <v>1023.228251852897</v>
       </c>
       <c r="R12">
-        <v>981.4627303329654</v>
+        <v>9209.054266676076</v>
       </c>
       <c r="S12">
-        <v>0.04201567332975509</v>
+        <v>0.0333450684155145</v>
       </c>
       <c r="T12">
-        <v>0.04201567332975509</v>
+        <v>0.0333450684155145</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N13">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O13">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P13">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q13">
-        <v>951.1147939061842</v>
+        <v>1026.249874287429</v>
       </c>
       <c r="R13">
-        <v>951.1147939061842</v>
+        <v>9236.248868586863</v>
       </c>
       <c r="S13">
-        <v>0.04071650124330488</v>
+        <v>0.0334435373608577</v>
       </c>
       <c r="T13">
-        <v>0.04071650124330488</v>
+        <v>0.0334435373608577</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H14">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I14">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J14">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N14">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O14">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P14">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q14">
-        <v>657.7124205382089</v>
+        <v>725.2646027228753</v>
       </c>
       <c r="R14">
-        <v>657.7124205382089</v>
+        <v>6527.381424505877</v>
       </c>
       <c r="S14">
-        <v>0.02815616869820504</v>
+        <v>0.02363499810853737</v>
       </c>
       <c r="T14">
-        <v>0.02815616869820504</v>
+        <v>0.02363499810853736</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H15">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I15">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J15">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N15">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O15">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P15">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q15">
-        <v>478.2143895331263</v>
+        <v>1115.356527567382</v>
       </c>
       <c r="R15">
-        <v>478.2143895331263</v>
+        <v>10038.20874810644</v>
       </c>
       <c r="S15">
-        <v>0.02047199445402845</v>
+        <v>0.03634735422138428</v>
       </c>
       <c r="T15">
-        <v>0.02047199445402845</v>
+        <v>0.03634735422138428</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H16">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I16">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J16">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N16">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O16">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P16">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q16">
-        <v>32.4172825863786</v>
+        <v>37.01893276974333</v>
       </c>
       <c r="R16">
-        <v>32.4172825863786</v>
+        <v>333.17039492769</v>
       </c>
       <c r="S16">
-        <v>0.00138775922232479</v>
+        <v>0.001206376821243091</v>
       </c>
       <c r="T16">
-        <v>0.00138775922232479</v>
+        <v>0.001206376821243091</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H17">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N17">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O17">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P17">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q17">
-        <v>543.3824458172013</v>
+        <v>1060.016626505944</v>
       </c>
       <c r="R17">
-        <v>543.3824458172013</v>
+        <v>9540.149638553499</v>
       </c>
       <c r="S17">
-        <v>0.02326178939961735</v>
+        <v>0.03454393178493385</v>
       </c>
       <c r="T17">
-        <v>0.02326178939961735</v>
+        <v>0.03454393178493385</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H18">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N18">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O18">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P18">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q18">
-        <v>526.5804467076734</v>
+        <v>1063.146886068097</v>
       </c>
       <c r="R18">
-        <v>526.5804467076734</v>
+        <v>9568.321974612873</v>
       </c>
       <c r="S18">
-        <v>0.02254250859143703</v>
+        <v>0.03464594100826137</v>
       </c>
       <c r="T18">
-        <v>0.02254250859143703</v>
+        <v>0.03464594100826138</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H19">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N19">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O19">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P19">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q19">
-        <v>364.1395365009507</v>
+        <v>751.3402176985633</v>
       </c>
       <c r="R19">
-        <v>364.1395365009507</v>
+        <v>6762.061959287069</v>
       </c>
       <c r="S19">
-        <v>0.01558853672098373</v>
+        <v>0.02448475295430753</v>
       </c>
       <c r="T19">
-        <v>0.01558853672098373</v>
+        <v>0.02448475295430753</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H20">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N20">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O20">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P20">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q20">
-        <v>264.7612553981888</v>
+        <v>1155.457212564663</v>
       </c>
       <c r="R20">
-        <v>264.7612553981888</v>
+        <v>10399.11491308196</v>
       </c>
       <c r="S20">
-        <v>0.01133422805918698</v>
+        <v>0.03765415950390254</v>
       </c>
       <c r="T20">
-        <v>0.01133422805918698</v>
+        <v>0.03765415950390254</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H21">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N21">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O21">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P21">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q21">
-        <v>17.947683344591</v>
+        <v>38.34988347944389</v>
       </c>
       <c r="R21">
-        <v>17.947683344591</v>
+        <v>345.148951314995</v>
       </c>
       <c r="S21">
-        <v>0.0007683266792783825</v>
+        <v>0.001249749981036399</v>
       </c>
       <c r="T21">
-        <v>0.0007683266792783825</v>
+        <v>0.001249749981036399</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H22">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.07031825285759</v>
+        <v>4.076492666666667</v>
       </c>
       <c r="N22">
-        <v>4.07031825285759</v>
+        <v>12.229478</v>
       </c>
       <c r="O22">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="P22">
-        <v>0.3165067846233175</v>
+        <v>0.2605544836075472</v>
       </c>
       <c r="Q22">
-        <v>101.2024820153613</v>
+        <v>110.3805344602516</v>
       </c>
       <c r="R22">
-        <v>101.2024820153613</v>
+        <v>993.4248101422641</v>
       </c>
       <c r="S22">
-        <v>0.004332401316018687</v>
+        <v>0.003597092307266831</v>
       </c>
       <c r="T22">
-        <v>0.004332401316018687</v>
+        <v>0.003597092307266831</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H23">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.94445941404811</v>
+        <v>4.088530666666666</v>
       </c>
       <c r="N23">
-        <v>3.94445941404811</v>
+        <v>12.265592</v>
       </c>
       <c r="O23">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857801</v>
       </c>
       <c r="P23">
-        <v>0.306720037270074</v>
+        <v>0.2613239084857802</v>
       </c>
       <c r="Q23">
-        <v>98.07318693821381</v>
+        <v>110.7064913507662</v>
       </c>
       <c r="R23">
-        <v>98.07318693821381</v>
+        <v>996.358422156896</v>
       </c>
       <c r="S23">
-        <v>0.00419843857280863</v>
+        <v>0.003607714624227917</v>
       </c>
       <c r="T23">
-        <v>0.00419843857280863</v>
+        <v>0.003607714624227918</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H24">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.72766228172475</v>
+        <v>2.889419666666666</v>
       </c>
       <c r="N24">
-        <v>2.72766228172475</v>
+        <v>8.668258999999999</v>
       </c>
       <c r="O24">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="P24">
-        <v>0.21210223984842</v>
+        <v>0.1846811243719048</v>
       </c>
       <c r="Q24">
-        <v>67.81931432915066</v>
+        <v>78.23776789654356</v>
       </c>
       <c r="R24">
-        <v>67.81931432915066</v>
+        <v>704.1399110688919</v>
       </c>
       <c r="S24">
-        <v>0.002903293286883015</v>
+        <v>0.002549620496172974</v>
       </c>
       <c r="T24">
-        <v>0.002903293286883015</v>
+        <v>0.002549620496172974</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H25">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.98324877587097</v>
+        <v>4.443527333333333</v>
       </c>
       <c r="N25">
-        <v>1.98324877587097</v>
+        <v>13.330582</v>
       </c>
       <c r="O25">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622808</v>
       </c>
       <c r="P25">
-        <v>0.1542168582808882</v>
+        <v>0.2840139954622809</v>
       </c>
       <c r="Q25">
-        <v>49.31056642343868</v>
+        <v>120.3188530063351</v>
       </c>
       <c r="R25">
-        <v>49.31056642343868</v>
+        <v>1082.869677057016</v>
       </c>
       <c r="S25">
-        <v>0.002110947860291666</v>
+        <v>0.003920963262993701</v>
       </c>
       <c r="T25">
-        <v>0.002110947860291666</v>
+        <v>0.003920963262993702</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H26">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.134440822805992</v>
+        <v>0.1474816666666666</v>
       </c>
       <c r="N26">
-        <v>0.134440822805992</v>
+        <v>0.442445</v>
       </c>
       <c r="O26">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486921</v>
       </c>
       <c r="P26">
-        <v>0.01045407997730011</v>
+        <v>0.009426488072486923</v>
       </c>
       <c r="Q26">
-        <v>3.342673497975689</v>
+        <v>3.993409658962222</v>
       </c>
       <c r="R26">
-        <v>3.342673497975689</v>
+        <v>35.94068693066</v>
       </c>
       <c r="S26">
-        <v>0.000143097311185041</v>
+        <v>0.000130137648220854</v>
       </c>
       <c r="T26">
-        <v>0.000143097311185041</v>
+        <v>0.000130137648220854</v>
       </c>
     </row>
   </sheetData>
